--- a/Project4/stew.xlsx
+++ b/Project4/stew.xlsx
@@ -293,7 +293,7 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>만들수있는 로하는 로만드는 추천</t>
+      <t>만들수있는 로하는 로만드는</t>
     </r>
   </si>
   <si>
@@ -438,7 +438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -512,10 +512,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,9 +831,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="44.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="147.4335714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="44.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="147.4335714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1146,7 +1152,7 @@
       </c>
       <c r="C32" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -1155,7 +1161,7 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -1164,7 +1170,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -1173,7 +1179,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -1182,7 +1188,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
@@ -1191,7 +1197,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
@@ -1200,7 +1206,7 @@
       </c>
       <c r="C38" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21">
       <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
@@ -1209,7 +1215,7 @@
       </c>
       <c r="C39" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -1218,7 +1224,7 @@
       </c>
       <c r="C40" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -1227,7 +1233,7 @@
       </c>
       <c r="C41" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
@@ -1236,7 +1242,7 @@
       </c>
       <c r="C42" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21">
       <c r="A43" s="3" t="s">
         <v>59</v>
       </c>
@@ -1245,7 +1251,7 @@
       </c>
       <c r="C43" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21">
       <c r="A44" s="3" t="s">
         <v>60</v>
       </c>
@@ -1254,7 +1260,7 @@
       </c>
       <c r="C44" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21">
       <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
@@ -1263,33 +1269,33 @@
       </c>
       <c r="C45" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="8"/>
     </row>
   </sheetData>

--- a/Project4/stew.xlsx
+++ b/Project4/stew.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>rule_and</t>
   </si>
@@ -293,13 +293,54 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
+      <t>만들수있는 로하는 로만드는 요리추천 음식추천</t>
+    </r>
+  </si>
+  <si>
+    <t>달걀</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사용 이용 가지고 들어가는 로할수있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
       <t>만들수있는 로하는 로만드는</t>
     </r>
   </si>
   <si>
-    <t>달걀</t>
-  </si>
-  <si>
     <t>오징어</t>
   </si>
   <si>
@@ -387,10 +428,31 @@
     <t>호박</t>
   </si>
   <si>
+    <t>탕국</t>
+  </si>
+  <si>
+    <t>요리추천 음식추천 종류추천 종류 요리 음식</t>
+  </si>
+  <si>
     <t>찌개</t>
   </si>
   <si>
-    <t>종류 종류추천 음식추천</t>
+    <t>볶음</t>
+  </si>
+  <si>
+    <t>밥</t>
+  </si>
+  <si>
+    <t>찜</t>
+  </si>
+  <si>
+    <t>전</t>
+  </si>
+  <si>
+    <t>아무</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -485,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -515,6 +577,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -825,15 +890,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="44.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="147.4335714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="44.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="147.4335714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1004,299 +1069,342 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C37" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C39" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21">
       <c r="A45" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C45" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C47" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C48" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C49" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C50" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
